--- a/builds/production/data/maindata.xlsx
+++ b/builds/production/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="5060" yWindow="2980" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="rixmannLobby" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,9 @@
     <sheet name="paydayAvg" sheetId="3" r:id="rId3"/>
     <sheet name="paydayRegion" sheetId="4" r:id="rId4"/>
     <sheet name="source" sheetId="5" r:id="rId5"/>
+    <sheet name="layout" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="117">
   <si>
     <t>recipient_committee</t>
   </si>
@@ -287,6 +288,93 @@
   </si>
   <si>
     <t xml:space="preserve">Source: Minnesota Campaign Finance and Public Disclosure Board </t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>rixmannLobby</t>
+  </si>
+  <si>
+    <t>paydayLoans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minnesota Campaign Finance and Public Disclosure Board </t>
+  </si>
+  <si>
+    <t>paydayAvg</t>
+  </si>
+  <si>
+    <t>paydayRegion</t>
+  </si>
+  <si>
+    <t>Rixmann's payday lobbying donations, 2000-2014</t>
+  </si>
+  <si>
+    <t>Minnesota payday loans given out, 2000-2014</t>
+  </si>
+  <si>
+    <t>Average amount of Minnesota payday loans, 2000-2014</t>
+  </si>
+  <si>
+    <t>Minnesota payday loans by region, 2000-2014</t>
+  </si>
+  <si>
+    <t>Donation recipient</t>
+  </si>
+  <si>
+    <t>Recipient party affiliation (DFL, R)</t>
+  </si>
+  <si>
+    <t>Donor name</t>
+  </si>
+  <si>
+    <t>Amount of donation</t>
+  </si>
+  <si>
+    <t>Donation year</t>
+  </si>
+  <si>
+    <t>Donation date</t>
+  </si>
+  <si>
+    <t>State of residence</t>
+  </si>
+  <si>
+    <t>Zip code of residence</t>
+  </si>
+  <si>
+    <t>City of residence</t>
+  </si>
+  <si>
+    <t>Data year</t>
+  </si>
+  <si>
+    <t>Total loans given out by lenders</t>
+  </si>
+  <si>
+    <t>Total payday loans given out by lenders</t>
+  </si>
+  <si>
+    <t>Average amount of loan given out by lenders</t>
+  </si>
+  <si>
+    <t>Average amount of payday loans given out by lenders</t>
+  </si>
+  <si>
+    <t>Minnesota region</t>
+  </si>
+  <si>
+    <t>Percent of payday loans given out</t>
+  </si>
+  <si>
+    <t>Total payday loans amount given out by lenders</t>
   </si>
 </sst>
 </file>
@@ -296,7 +384,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -304,6 +392,24 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -324,10 +430,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -335,8 +467,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="27">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -668,7 +827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I174"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -5724,6 +5885,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5736,7 +5898,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -5921,6 +6085,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5933,7 +6098,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -6118,6 +6285,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6130,7 +6298,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B2:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
@@ -6191,6 +6361,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6201,26 +6372,274 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2015</v>
       </c>
     </row>
+    <row r="6" spans="1:3" s="7" customFormat="1">
+      <c r="A6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" s="7" customFormat="1">
+      <c r="A2" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
